--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ME</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q0</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04023809322009356</v>
+        <v>0.01965582767097413</v>
       </c>
       <c r="C2">
-        <v>1.056958239580716</v>
+        <v>0.9028368076043077</v>
       </c>
       <c r="D2">
-        <v>2.002995487404513</v>
+        <v>1.487274831470099</v>
       </c>
       <c r="E2">
-        <v>1.415272230846247</v>
+        <v>1.219538778173986</v>
       </c>
       <c r="F2">
-        <v>1.420089456891176</v>
+        <v>1.23381140640422</v>
       </c>
       <c r="G2">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +452,45 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1515538042409095</v>
+        <v>0.09922626907716836</v>
       </c>
       <c r="C3">
-        <v>1.582349216479061</v>
+        <v>1.334569147596012</v>
       </c>
       <c r="D3">
-        <v>8.263778808380096</v>
+        <v>4.031143965198564</v>
       </c>
       <c r="E3">
-        <v>2.874678905265786</v>
+        <v>2.007770894598924</v>
       </c>
       <c r="F3">
-        <v>2.884582832808281</v>
+        <v>2.013015443340949</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.1165997114055807</v>
+      </c>
+      <c r="C4">
+        <v>1.458584920587325</v>
+      </c>
+      <c r="D4">
+        <v>8.577350374430635</v>
+      </c>
+      <c r="E4">
+        <v>2.928711384624752</v>
+      </c>
+      <c r="F4">
+        <v>2.950278682772432</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01965582767097413</v>
+        <v>0.01545855848938353</v>
       </c>
       <c r="C2">
-        <v>0.9028368076043077</v>
+        <v>0.7701062903297097</v>
       </c>
       <c r="D2">
-        <v>1.487274831470099</v>
+        <v>1.235456751497203</v>
       </c>
       <c r="E2">
-        <v>1.219538778173986</v>
+        <v>1.111511021761459</v>
       </c>
       <c r="F2">
-        <v>1.23381140640422</v>
+        <v>1.124252542560714</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09922626907716836</v>
+        <v>0.105076755752719</v>
       </c>
       <c r="C3">
-        <v>1.334569147596012</v>
+        <v>1.1719144532541</v>
       </c>
       <c r="D3">
-        <v>4.031143965198564</v>
+        <v>3.506314857599392</v>
       </c>
       <c r="E3">
-        <v>2.007770894598924</v>
+        <v>1.872515649493855</v>
       </c>
       <c r="F3">
-        <v>2.013015443340949</v>
+        <v>1.876375943129755</v>
       </c>
       <c r="G3">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1165997114055807</v>
+        <v>0.1788847452694332</v>
       </c>
       <c r="C4">
-        <v>1.458584920587325</v>
+        <v>1.315025965430722</v>
       </c>
       <c r="D4">
-        <v>8.577350374430635</v>
+        <v>7.760782161348872</v>
       </c>
       <c r="E4">
-        <v>2.928711384624752</v>
+        <v>2.785818041679835</v>
       </c>
       <c r="F4">
-        <v>2.950278682772432</v>
+        <v>2.801050726608752</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01545855848938353</v>
+        <v>0.01636035618807323</v>
       </c>
       <c r="C2">
-        <v>0.7701062903297097</v>
+        <v>0.7542381384319475</v>
       </c>
       <c r="D2">
-        <v>1.235456751497203</v>
+        <v>1.208071944140944</v>
       </c>
       <c r="E2">
-        <v>1.111511021761459</v>
+        <v>1.099123261577583</v>
       </c>
       <c r="F2">
-        <v>1.124252542560714</v>
+        <v>1.111419983725625</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.105076755752719</v>
+        <v>0.1050767557480483</v>
       </c>
       <c r="C3">
-        <v>1.1719144532541</v>
+        <v>1.17191445325214</v>
       </c>
       <c r="D3">
-        <v>3.506314857599392</v>
+        <v>3.506314857596029</v>
       </c>
       <c r="E3">
-        <v>1.872515649493855</v>
+        <v>1.872515649492957</v>
       </c>
       <c r="F3">
-        <v>1.876375943129755</v>
+        <v>1.876375943129116</v>
       </c>
       <c r="G3">
         <v>138</v>
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1788847452694332</v>
+        <v>0.1730876980324934</v>
       </c>
       <c r="C4">
-        <v>1.315025965430722</v>
+        <v>1.326443179105317</v>
       </c>
       <c r="D4">
-        <v>7.760782161348872</v>
+        <v>7.8735929385556</v>
       </c>
       <c r="E4">
-        <v>2.785818041679835</v>
+        <v>2.805992326888226</v>
       </c>
       <c r="F4">
-        <v>2.801050726608752</v>
+        <v>2.822110003756866</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_latest.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01636035618807323</v>
+        <v>0.01339202195363811</v>
       </c>
       <c r="C2">
-        <v>0.7542381384319475</v>
+        <v>0.751747495968654</v>
       </c>
       <c r="D2">
-        <v>1.208071944140944</v>
+        <v>1.207807154213344</v>
       </c>
       <c r="E2">
-        <v>1.099123261577583</v>
+        <v>1.099002799911512</v>
       </c>
       <c r="F2">
-        <v>1.111419983725625</v>
+        <v>1.111338784757336</v>
       </c>
       <c r="G2">
         <v>45</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1050767557480483</v>
+        <v>0.1058108245021329</v>
       </c>
       <c r="C3">
-        <v>1.17191445325214</v>
+        <v>1.129124555725148</v>
       </c>
       <c r="D3">
-        <v>3.506314857596029</v>
+        <v>3.360206299466695</v>
       </c>
       <c r="E3">
-        <v>1.872515649492957</v>
+        <v>1.833086549911568</v>
       </c>
       <c r="F3">
-        <v>1.876375943129116</v>
+        <v>1.836417714414163</v>
       </c>
       <c r="G3">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1730876980324934</v>
+        <v>0.1993574677006487</v>
       </c>
       <c r="C4">
-        <v>1.326443179105317</v>
+        <v>1.286806921283597</v>
       </c>
       <c r="D4">
-        <v>7.8735929385556</v>
+        <v>7.446533758047825</v>
       </c>
       <c r="E4">
-        <v>2.805992326888226</v>
+        <v>2.728833772520383</v>
       </c>
       <c r="F4">
-        <v>2.822110003756866</v>
+        <v>2.74119228546971</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
